--- a/Matrikel for Kongens kvarter/Point32_33/point32&33_198_2.xlsx
+++ b/Matrikel for Kongens kvarter/Point32_33/point32&33_198_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erikl\Desktop\Quarter på Sanct Croix\Matrikel for Kongens kvarter\Point32_33\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E128153E-C7CD-498B-BC67-50A163944615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB520D5-7953-4913-8AD5-D2E8CE4FEC49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DAD38BAA-9A76-49A2-8093-C983DE41E6AD}"/>
   </bookViews>
@@ -41,9 +41,6 @@
     <t>Annual List of White Inhabitants &amp; Negroes on Anguilla Estate No. 32 &amp; 33 in King’s Quarter the prop</t>
   </si>
   <si>
-    <t>James of White's</t>
-  </si>
-  <si>
     <t>their Occupations</t>
   </si>
   <si>
@@ -345,6 +342,9 @@
   </si>
   <si>
     <t>6 Johanna 10.</t>
+  </si>
+  <si>
+    <t>Names of White's</t>
   </si>
 </sst>
 </file>
@@ -406,20 +406,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -758,7 +758,7 @@
   <dimension ref="C3:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,629 +775,629 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:11" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
     </row>
     <row r="4" spans="3:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="3:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="3:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2"/>
+      <c r="I5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K5" s="2" t="s">
+    </row>
+    <row r="6" spans="3:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="C6" s="2"/>
+      <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="3:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="C6" s="3"/>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="C7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="3:11" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="C8" s="5"/>
+      <c r="D8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="2" t="s">
+      <c r="H8" s="6"/>
+      <c r="I8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J8" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K8" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="3:11" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="C8" s="1"/>
-      <c r="D8" s="2" t="s">
+    <row r="9" spans="3:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="C9" s="5"/>
+      <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="E9" s="2"/>
+      <c r="F9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="2" t="s">
+      <c r="H9" s="6"/>
+      <c r="I9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J9" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K9" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="3:11" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="C9" s="1"/>
-      <c r="D9" s="2" t="s">
+    <row r="10" spans="3:11" ht="57" x14ac:dyDescent="0.25">
+      <c r="C10" s="5"/>
+      <c r="D10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="2" t="s">
+      <c r="E10" s="2"/>
+      <c r="F10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="2" t="s">
+      <c r="H10" s="6"/>
+      <c r="I10" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K9" s="2" t="s">
+      <c r="J10" s="2"/>
+      <c r="K10" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="3:11" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="C10" s="1"/>
-      <c r="D10" s="2" t="s">
+    <row r="11" spans="3:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="C11" s="5"/>
+      <c r="D11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="2" t="s">
+      <c r="E11" s="2"/>
+      <c r="F11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="2" t="s">
+      <c r="H11" s="6"/>
+      <c r="I11" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="2" t="s">
+      <c r="J11" s="2"/>
+      <c r="K11" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="3:11" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="C11" s="1"/>
-      <c r="D11" s="2" t="s">
+    <row r="12" spans="3:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="C12" s="5"/>
+      <c r="D12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="2" t="s">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="2" t="s">
+      <c r="H12" s="6"/>
+      <c r="I12" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="2" t="s">
+      <c r="J12" s="2"/>
+      <c r="K12" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="3:11" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="C12" s="1"/>
-      <c r="D12" s="2" t="s">
+    <row r="13" spans="3:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="C13" s="5"/>
+      <c r="D13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="2" t="s">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="2" t="s">
+      <c r="H13" s="6"/>
+      <c r="I13" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="3:11" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="C13" s="1"/>
-      <c r="D13" s="2" t="s">
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="3:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="C14" s="5"/>
+      <c r="D14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="2" t="s">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="2" t="s">
+      <c r="H14" s="6"/>
+      <c r="I14" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="3:11" ht="57" x14ac:dyDescent="0.25">
-      <c r="C14" s="1"/>
-      <c r="D14" s="2" t="s">
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="3:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="C15" s="5"/>
+      <c r="D15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="2" t="s">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="2" t="s">
+      <c r="H15" s="6"/>
+      <c r="I15" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="3:11" ht="57" x14ac:dyDescent="0.25">
-      <c r="C15" s="1"/>
-      <c r="D15" s="2" t="s">
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="3:11" ht="57" x14ac:dyDescent="0.25">
+      <c r="C16" s="5"/>
+      <c r="D16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="2" t="s">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="2" t="s">
+      <c r="H16" s="6"/>
+      <c r="I16" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="3:11" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="C16" s="1"/>
-      <c r="D16" s="2" t="s">
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="3:11" ht="57" x14ac:dyDescent="0.25">
+      <c r="C17" s="5"/>
+      <c r="D17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="2" t="s">
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="C17" s="1"/>
-      <c r="D17" s="2" t="s">
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="3:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="C18" s="5"/>
+      <c r="D18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="2" t="s">
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="C18" s="1"/>
-      <c r="D18" s="2" t="s">
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="3:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="C19" s="5"/>
+      <c r="D19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="2" t="s">
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" ht="57" x14ac:dyDescent="0.25">
-      <c r="C19" s="1"/>
-      <c r="D19" s="2" t="s">
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="3:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="C20" s="5"/>
+      <c r="D20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="2" t="s">
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" ht="57" x14ac:dyDescent="0.25">
-      <c r="C20" s="1"/>
-      <c r="D20" s="2" t="s">
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="3:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="C21" s="5"/>
+      <c r="D21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="2" t="s">
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="C21" s="1"/>
-      <c r="D21" s="2" t="s">
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="3:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="C22" s="5"/>
+      <c r="D22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="2" t="s">
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="C22" s="1"/>
-      <c r="D22" s="2" t="s">
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="3:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="C23" s="5"/>
+      <c r="D23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="2" t="s">
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" ht="57" x14ac:dyDescent="0.25">
-      <c r="C23" s="1"/>
-      <c r="D23" s="2" t="s">
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="3:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="C24" s="5"/>
+      <c r="D24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="2" t="s">
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" ht="57" x14ac:dyDescent="0.25">
-      <c r="C24" s="1"/>
-      <c r="D24" s="2" t="s">
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="3:11" ht="57" x14ac:dyDescent="0.25">
+      <c r="C25" s="5"/>
+      <c r="D25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="2" t="s">
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="C25" s="1"/>
-      <c r="D25" s="2" t="s">
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="3:11" ht="57" x14ac:dyDescent="0.25">
+      <c r="C26" s="5"/>
+      <c r="D26" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="2" t="s">
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="C26" s="1"/>
-      <c r="D26" s="2" t="s">
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="3:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="C27" s="5"/>
+      <c r="D27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="2" t="s">
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" ht="57" x14ac:dyDescent="0.25">
-      <c r="C27" s="1"/>
-      <c r="D27" s="2" t="s">
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="3:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="C28" s="5"/>
+      <c r="D28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="2" t="s">
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" ht="57" x14ac:dyDescent="0.25">
-      <c r="C28" s="1"/>
-      <c r="D28" s="2" t="s">
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="3:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="C29" s="5"/>
+      <c r="D29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="2" t="s">
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="C29" s="1"/>
-      <c r="D29" s="2" t="s">
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" spans="3:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="C30" s="5"/>
+      <c r="D30" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="2" t="s">
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="C30" s="1"/>
-      <c r="D30" s="2" t="s">
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" spans="3:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="C31" s="5"/>
+      <c r="D31" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="2" t="s">
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="C31" s="1"/>
-      <c r="D31" s="2" t="s">
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" spans="3:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="C32" s="5"/>
+      <c r="D32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="2" t="s">
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" ht="57" x14ac:dyDescent="0.25">
-      <c r="C32" s="1"/>
-      <c r="D32" s="2" t="s">
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+    </row>
+    <row r="33" spans="3:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="C33" s="5"/>
+      <c r="D33" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="2" t="s">
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="3:11" ht="57" x14ac:dyDescent="0.25">
-      <c r="C33" s="1"/>
-      <c r="D33" s="2" t="s">
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+    </row>
+    <row r="34" spans="3:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="C34" s="5"/>
+      <c r="D34" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="2" t="s">
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="3:11" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="C34" s="1"/>
-      <c r="D34" s="2" t="s">
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="3:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="C35" s="5"/>
+      <c r="D35" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="2" t="s">
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="3:11" ht="57" x14ac:dyDescent="0.25">
-      <c r="C35" s="1"/>
-      <c r="D35" s="2" t="s">
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="3:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="C36" s="5"/>
+      <c r="D36" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="2" t="s">
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="36" spans="3:11" ht="57" x14ac:dyDescent="0.25">
-      <c r="C36" s="1"/>
-      <c r="D36" s="2" t="s">
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" spans="3:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="C37" s="5"/>
+      <c r="D37" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-    </row>
-    <row r="37" spans="3:11" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="C37" s="1"/>
-      <c r="D37" s="2" t="s">
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+    </row>
+    <row r="38" spans="3:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="C38" s="5"/>
+      <c r="D38" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-    </row>
-    <row r="38" spans="3:11" ht="57" x14ac:dyDescent="0.25">
-      <c r="C38" s="1"/>
-      <c r="D38" s="2" t="s">
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+    </row>
+    <row r="39" spans="3:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="C39" s="5"/>
+      <c r="D39" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-    </row>
-    <row r="39" spans="3:11" ht="57" x14ac:dyDescent="0.25">
-      <c r="C39" s="1"/>
-      <c r="D39" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
